--- a/Расчеты/Интесивность.xlsx
+++ b/Расчеты/Интесивность.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="NT Maximum" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -130,6 +131,54 @@
   </si>
   <si>
     <t>Расчетная интенсивность (20 минут)</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>click_flights</t>
+  </si>
+  <si>
+    <t>click_find_flight</t>
+  </si>
+  <si>
+    <t>click_itenerary</t>
+  </si>
+  <si>
+    <t>click_cancel_checked</t>
+  </si>
+  <si>
+    <t>click_log_out</t>
+  </si>
+  <si>
+    <t>first_registrashion</t>
+  </si>
+  <si>
+    <t>fill_payment_info</t>
+  </si>
+  <si>
+    <t>Наименование операции</t>
+  </si>
+  <si>
+    <t>Наименование транзакции</t>
+  </si>
+  <si>
+    <t>По профилю</t>
+  </si>
+  <si>
+    <t>По факту</t>
+  </si>
+  <si>
+    <t>% отклонения</t>
+  </si>
+  <si>
+    <t>поиск максимума 4 ступень</t>
+  </si>
+  <si>
+    <t>подверждение максимума</t>
   </si>
 </sst>
 </file>
@@ -139,12 +188,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,8 +226,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +314,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -334,116 +411,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,96 +872,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="8" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="8"/>
-    <col min="13" max="13" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16" style="8" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="11" style="8" customWidth="1"/>
-    <col min="23" max="23" width="2.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" style="8" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="3" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="8"/>
+    <col min="19" max="19" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="16" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" style="8" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="8" customWidth="1"/>
+    <col min="28" max="28" width="11" style="8" customWidth="1"/>
+    <col min="29" max="29" width="2.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="8" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" style="8" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="34" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="T1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="U1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="V1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="W1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="X1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="Y1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="Z1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="AA1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="AB1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="38" t="s">
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AE1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="20"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="AF1" s="20"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -829,27 +993,35 @@
       <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="20"/>
-    </row>
-    <row r="3" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="20"/>
+    </row>
+    <row r="3" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -880,55 +1052,71 @@
         <f>SUM(E3:I3)</f>
         <v>401</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="3">
+      <c r="K3" s="38">
+        <f>J3/3</f>
+        <v>133.66666666666666</v>
+      </c>
+      <c r="L3" s="38">
+        <v>132</v>
+      </c>
+      <c r="M3" s="39">
+        <f>K3/L3-1</f>
+        <v>1.2626262626262541E-2</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="28">
+      <c r="U3" s="28">
         <f>E11</f>
         <v>144</v>
       </c>
-      <c r="P3" s="25">
-        <f>3600*Q3/R3</f>
+      <c r="V3" s="25">
+        <f>3600*W3/X3</f>
         <v>144</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="W3" s="24">
         <v>4</v>
       </c>
-      <c r="R3" s="29">
+      <c r="X3" s="29">
         <v>100</v>
       </c>
-      <c r="S3" s="3">
-        <f>P3*100/O3</f>
+      <c r="Y3" s="3">
+        <f>V3*100/U3</f>
         <v>100</v>
       </c>
-      <c r="T3" s="3">
-        <f>Q3/Q11*100</f>
+      <c r="Z3" s="3">
+        <f>W3/W11*100</f>
         <v>40</v>
       </c>
-      <c r="U3" s="22">
-        <f>P3/3</f>
+      <c r="AA3" s="22">
+        <f>V3/3</f>
         <v>48</v>
       </c>
-      <c r="V3" s="3">
+      <c r="AB3" s="3">
         <v>7</v>
       </c>
-      <c r="W3" s="3">
+      <c r="AC3" s="3">
         <v>2</v>
       </c>
-      <c r="X3" s="17">
-        <f>R3/V3/W3</f>
+      <c r="AD3" s="17">
+        <f>X3/AB3/AC3</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="AE3" s="21">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -957,55 +1145,71 @@
         <f>SUM(E4:I4)</f>
         <v>271</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="3">
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K9" si="0">J4/3</f>
+        <v>90.333333333333329</v>
+      </c>
+      <c r="L4" s="18">
+        <v>86</v>
+      </c>
+      <c r="M4" s="39">
+        <f t="shared" ref="M4:M9" si="1">K4/L4-1</f>
+        <v>5.0387596899224674E-2</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="28">
+      <c r="U4" s="28">
         <f>F11</f>
         <v>120</v>
       </c>
-      <c r="P4" s="25">
-        <f>3600*Q4/R4</f>
+      <c r="V4" s="25">
+        <f>3600*W4/X4</f>
         <v>120</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="W4" s="24">
         <v>1</v>
       </c>
-      <c r="R4" s="29">
+      <c r="X4" s="29">
         <v>30</v>
       </c>
-      <c r="S4" s="3">
-        <f t="shared" ref="S4:S7" si="0">P4*100/O4</f>
+      <c r="Y4" s="3">
+        <f t="shared" ref="Y4:Y7" si="2">V4*100/U4</f>
         <v>100</v>
       </c>
-      <c r="T4" s="3">
-        <f>Q4/Q11*100</f>
+      <c r="Z4" s="3">
+        <f>W4/W11*100</f>
         <v>10</v>
       </c>
-      <c r="U4" s="22">
-        <f t="shared" ref="U4:U6" si="1">P4/3</f>
+      <c r="AA4" s="22">
+        <f t="shared" ref="AA4:AA6" si="3">V4/3</f>
         <v>40</v>
       </c>
-      <c r="V4" s="3">
+      <c r="AB4" s="3">
         <v>1</v>
       </c>
-      <c r="W4" s="3">
+      <c r="AC4" s="3">
         <v>2</v>
       </c>
-      <c r="X4" s="3">
-        <f>R4/V4/W4</f>
+      <c r="AD4" s="3">
+        <f>X4/AB4/AC4</f>
         <v>15</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="AE4" s="21">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1029,58 +1233,74 @@
         <v>117</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" ref="J5:J10" si="2">SUM(E5:I5)</f>
+        <f t="shared" ref="J5:J10" si="4">SUM(E5:I5)</f>
         <v>261</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="3">
+      <c r="K5" s="38">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="L5" s="18">
+        <v>86</v>
+      </c>
+      <c r="M5" s="39">
+        <f t="shared" si="1"/>
+        <v>1.1627906976744207E-2</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="28">
+      <c r="U5" s="28">
         <f>G11</f>
         <v>20</v>
       </c>
-      <c r="P5" s="26">
-        <f t="shared" ref="P5:P7" si="3">3600*Q5/R5</f>
+      <c r="V5" s="26">
+        <f t="shared" ref="V5:V7" si="5">3600*W5/X5</f>
         <v>20</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="W5" s="24">
         <v>2</v>
       </c>
-      <c r="R5" s="29">
+      <c r="X5" s="29">
         <v>360</v>
       </c>
-      <c r="S5" s="3">
-        <f t="shared" si="0"/>
+      <c r="Y5" s="3">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="T5" s="3">
-        <f>Q5/Q11*100</f>
+      <c r="Z5" s="3">
+        <f>W5/W11*100</f>
         <v>20</v>
       </c>
-      <c r="U5" s="23">
-        <f>P5/3</f>
+      <c r="AA5" s="23">
+        <f>V5/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="V5" s="3">
+      <c r="AB5" s="3">
         <v>4</v>
       </c>
-      <c r="W5" s="3">
+      <c r="AC5" s="3">
         <v>2</v>
       </c>
-      <c r="X5" s="3">
-        <f>R5/V5/W5</f>
+      <c r="AD5" s="3">
+        <f>X5/AB5/AC5</f>
         <v>45</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="AE5" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1102,58 +1322,74 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="3">
+      <c r="K6" s="38">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="L6" s="18">
+        <v>48</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="3">
         <v>4</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="28">
+      <c r="U6" s="28">
         <f>H11</f>
         <v>10</v>
       </c>
-      <c r="P6" s="25">
+      <c r="V6" s="25">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="W6" s="24">
+        <v>1</v>
+      </c>
+      <c r="X6" s="29">
+        <v>360</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>W6/W11*100</f>
+        <v>10</v>
+      </c>
+      <c r="AA6" s="23">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>1</v>
-      </c>
-      <c r="R6" s="29">
-        <v>360</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="T6" s="3">
-        <f>Q6/Q11*100</f>
-        <v>10</v>
-      </c>
-      <c r="U6" s="23">
-        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V6" s="3">
+      <c r="AB6" s="3">
         <v>4</v>
       </c>
-      <c r="W6" s="3">
+      <c r="AC6" s="3">
         <v>2</v>
       </c>
-      <c r="X6" s="3">
-        <f>R6/V6/W6</f>
+      <c r="AD6" s="3">
+        <f>X6/AB6/AC6</f>
         <v>45</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="AE6" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1177,58 +1413,74 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="3">
+      <c r="K7" s="38">
+        <f t="shared" si="0"/>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="L7" s="18">
+        <v>54</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="1"/>
+        <v>1.2345679012345734E-2</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="3">
         <v>5</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="28">
+      <c r="U7" s="28">
         <f>I11</f>
         <v>117</v>
       </c>
-      <c r="P7" s="27">
-        <f t="shared" si="3"/>
+      <c r="V7" s="27">
+        <f t="shared" si="5"/>
         <v>116.12903225806451</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="W7" s="24">
         <v>2</v>
       </c>
-      <c r="R7" s="29">
+      <c r="X7" s="29">
         <v>62</v>
       </c>
-      <c r="S7" s="5">
-        <f t="shared" si="0"/>
+      <c r="Y7" s="5">
+        <f t="shared" si="2"/>
         <v>99.25558312655086</v>
       </c>
-      <c r="T7" s="3">
-        <f>Q7/Q11*100</f>
+      <c r="Z7" s="3">
+        <f>W7/W11*100</f>
         <v>20</v>
       </c>
-      <c r="U7" s="23">
-        <f>P7/3</f>
+      <c r="AA7" s="23">
+        <f>V7/3</f>
         <v>38.70967741935484</v>
       </c>
-      <c r="V7" s="3">
+      <c r="AB7" s="3">
         <v>4</v>
       </c>
-      <c r="W7" s="3">
+      <c r="AC7" s="3">
         <v>2</v>
       </c>
-      <c r="X7" s="3">
-        <f>R7/V7/W7</f>
+      <c r="AD7" s="3">
+        <f>X7/AB7/AC7</f>
         <v>7.75</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="AE7" s="21">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1250,13 +1502,29 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K8" s="38">
+        <f>J8/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L8" s="18">
+        <v>7</v>
+      </c>
+      <c r="M8" s="39">
+        <f>K8/L8-1</f>
+        <v>-4.7619047619047561E-2</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1289,10 +1557,26 @@
         <f>SUM(E9:I9)</f>
         <v>411</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="K9" s="38">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="L9" s="18">
+        <v>138</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="1"/>
+        <v>-7.2463768115942351E-3</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:32" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1314,13 +1598,28 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K10" s="38">
+        <f>J10/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L10" s="18">
+        <v>3</v>
+      </c>
+      <c r="M10" s="40">
+        <v>3</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -1354,36 +1653,42 @@
         <v>117</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" ref="J11" si="4">SUM(J3:J10)</f>
+        <f t="shared" ref="J11" si="6">SUM(J3:J10)</f>
         <v>1682</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="O11" s="8">
-        <f>SUM(O3:O7)</f>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="U11" s="8">
+        <f>SUM(U3:U7)</f>
         <v>411</v>
       </c>
-      <c r="P11" s="42">
-        <f>SUM(P3:P7)</f>
+      <c r="V11" s="32">
+        <f>SUM(V3:V7)</f>
         <v>410.12903225806451</v>
       </c>
-      <c r="Q11" s="8">
-        <f>SUM(Q3:Q7)</f>
+      <c r="W11" s="8">
+        <f>SUM(W3:W7)</f>
         <v>10</v>
       </c>
-      <c r="R11" s="8">
-        <f>SUM(R3:R7)</f>
+      <c r="X11" s="8">
+        <f>SUM(X3:X7)</f>
         <v>912</v>
       </c>
-      <c r="S11" s="41">
-        <f>P11/O11</f>
+      <c r="Y11" s="31">
+        <f>V11/U11</f>
         <v>0.99788085707558272</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I15" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1393,7 +1698,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1403,7 +1708,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1413,296 +1718,1065 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="30" t="s">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="S27" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="T27" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="30" t="s">
+      <c r="U27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="30" t="s">
+      <c r="V27" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="30" t="s">
+      <c r="W27" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="R27" s="30" t="s">
+      <c r="X27" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="30" t="s">
+      <c r="Y27" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="T27" s="31" t="s">
+      <c r="Z27" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="31"/>
-    </row>
-    <row r="29" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="M29" s="3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="46"/>
+    </row>
+    <row r="29" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="S29" s="3">
         <v>1</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="3">
+      <c r="U29" s="3">
         <v>144</v>
       </c>
-      <c r="P29" s="3">
-        <f>3600*Q29/R29</f>
+      <c r="V29" s="3">
+        <f>3600*W29/X29</f>
         <v>144</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="W29" s="3">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
-        <f>P29*100/O29</f>
+      <c r="Y29" s="3">
+        <f>V29*100/U29</f>
         <v>100</v>
       </c>
-      <c r="T29" s="3">
-        <f>Q29/Q34*100</f>
+      <c r="Z29" s="3">
+        <f>W29/W34*100</f>
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M30" s="3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="S30" s="3">
         <v>2</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="3">
+      <c r="U30" s="3">
         <v>120</v>
       </c>
-      <c r="P30" s="3">
-        <f t="shared" ref="P30:P33" si="5">3600*Q30/R30</f>
+      <c r="V30" s="3">
+        <f t="shared" ref="V30:V33" si="7">3600*W30/X30</f>
         <v>120</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="W30" s="3">
         <v>1</v>
       </c>
-      <c r="R30" s="3">
+      <c r="X30" s="3">
         <v>30</v>
       </c>
-      <c r="S30" s="3">
-        <f t="shared" ref="S30:S33" si="6">P30*100/O30</f>
+      <c r="Y30" s="3">
+        <f t="shared" ref="Y30:Y33" si="8">V30*100/U30</f>
         <v>100</v>
       </c>
-      <c r="T30" s="3">
-        <f>Q30/Q34*100</f>
+      <c r="Z30" s="3">
+        <f>W30/W34*100</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="M31" s="3">
+    <row r="31" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="S31" s="3">
         <v>3</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="3">
+      <c r="U31" s="3">
         <v>20</v>
       </c>
-      <c r="P31" s="5">
-        <f t="shared" si="5"/>
+      <c r="V31" s="5">
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="W31" s="3">
         <v>2</v>
       </c>
-      <c r="R31" s="3">
+      <c r="X31" s="3">
         <v>360</v>
       </c>
-      <c r="S31" s="3">
-        <f t="shared" si="6"/>
+      <c r="Y31" s="3">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T31" s="3">
-        <f>Q31/Q34*100</f>
+      <c r="Z31" s="3">
+        <f>W31/W34*100</f>
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="M32" s="3">
+    <row r="32" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="S32" s="3">
         <v>4</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="3">
+      <c r="U32" s="3">
         <v>10</v>
       </c>
-      <c r="P32" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1</v>
-      </c>
-      <c r="R32" s="3">
-        <v>360</v>
-      </c>
-      <c r="S32" s="3">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <f>Q32/Q34*100</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="13:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="M33" s="3">
-        <v>5</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" s="3">
-        <v>117</v>
-      </c>
-      <c r="P33" s="5">
-        <f t="shared" si="5"/>
-        <v>116.12903225806451</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>2</v>
-      </c>
-      <c r="R33" s="3">
-        <v>62</v>
-      </c>
-      <c r="S33" s="3">
-        <f t="shared" si="6"/>
-        <v>99.25558312655086</v>
-      </c>
-      <c r="T33" s="3">
-        <f>Q33/Q34*100</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M34" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="3">
-        <f t="shared" ref="O34:T34" si="7">SUM(O29:O33)</f>
-        <v>411</v>
-      </c>
-      <c r="P34" s="40">
-        <f t="shared" si="7"/>
-        <v>410.12903225806451</v>
-      </c>
-      <c r="Q34" s="3">
+      <c r="V32" s="3">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="R34" s="3">
+      <c r="W32" s="3">
+        <v>1</v>
+      </c>
+      <c r="X32" s="3">
+        <v>360</v>
+      </c>
+      <c r="Y32" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
+        <f>W32/W34*100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="19:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="S33" s="3">
+        <v>5</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="3">
+        <v>117</v>
+      </c>
+      <c r="V33" s="5">
         <f t="shared" si="7"/>
+        <v>116.12903225806451</v>
+      </c>
+      <c r="W33" s="3">
+        <v>2</v>
+      </c>
+      <c r="X33" s="3">
+        <v>62</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="8"/>
+        <v>99.25558312655086</v>
+      </c>
+      <c r="Z33" s="3">
+        <f>W33/W34*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="S34" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="48"/>
+      <c r="U34" s="3">
+        <f t="shared" ref="U34:Z34" si="9">SUM(U29:U33)</f>
+        <v>411</v>
+      </c>
+      <c r="V34" s="30">
+        <f t="shared" si="9"/>
+        <v>410.12903225806451</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="X34" s="3">
+        <f t="shared" si="9"/>
         <v>912</v>
       </c>
-      <c r="S34" s="6">
-        <f>P34/O34</f>
+      <c r="Y34" s="6">
+        <f>V34/U34</f>
         <v>0.99788085707558272</v>
       </c>
-      <c r="T34" s="3">
-        <f t="shared" si="7"/>
+      <c r="Z34" s="3">
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="S27:S28"/>
     <mergeCell ref="T27:T28"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>401</v>
+      </c>
+      <c r="D3" s="40">
+        <v>4</v>
+      </c>
+      <c r="E3" s="40">
+        <f>C3*D3</f>
+        <v>1604</v>
+      </c>
+      <c r="F3" s="40">
+        <v>531</v>
+      </c>
+      <c r="G3" s="63">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40">
+        <f>F3*G3</f>
+        <v>1593</v>
+      </c>
+      <c r="I3" s="64">
+        <f>1-E3/H3</f>
+        <v>-6.9052102950408756E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10">
+        <v>271</v>
+      </c>
+      <c r="D4" s="40">
+        <v>4</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" ref="E4:E10" si="0">C4*D4</f>
+        <v>1084</v>
+      </c>
+      <c r="F4" s="40">
+        <v>346</v>
+      </c>
+      <c r="G4" s="63">
+        <v>3</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" ref="H4:H10" si="1">F4*G4</f>
+        <v>1038</v>
+      </c>
+      <c r="I4" s="64">
+        <f t="shared" ref="I4:I10" si="2">1-E4/H4</f>
+        <v>-4.4315992292870865E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10">
+        <v>261</v>
+      </c>
+      <c r="D5" s="40">
+        <v>4</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" si="0"/>
+        <v>1044</v>
+      </c>
+      <c r="F5" s="40">
+        <v>348</v>
+      </c>
+      <c r="G5" s="63">
+        <v>3</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="I5" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10">
+        <v>144</v>
+      </c>
+      <c r="D6" s="40">
+        <v>4</v>
+      </c>
+      <c r="E6" s="40">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="F6" s="40">
+        <v>192</v>
+      </c>
+      <c r="G6" s="63">
+        <v>3</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="I6" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="10">
+        <v>164</v>
+      </c>
+      <c r="D7" s="40">
+        <v>4</v>
+      </c>
+      <c r="E7" s="40">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="F7" s="40">
+        <v>218</v>
+      </c>
+      <c r="G7" s="63">
+        <v>3</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="1"/>
+        <v>654</v>
+      </c>
+      <c r="I7" s="64">
+        <f t="shared" si="2"/>
+        <v>-3.0581039755350758E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10">
+        <v>20</v>
+      </c>
+      <c r="D8" s="40">
+        <v>4</v>
+      </c>
+      <c r="E8" s="40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F8" s="40">
+        <v>25</v>
+      </c>
+      <c r="G8" s="63">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I8" s="64">
+        <f t="shared" si="2"/>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10">
+        <v>411</v>
+      </c>
+      <c r="D9" s="40">
+        <v>4</v>
+      </c>
+      <c r="E9" s="40">
+        <f t="shared" si="0"/>
+        <v>1644</v>
+      </c>
+      <c r="F9" s="40">
+        <v>550</v>
+      </c>
+      <c r="G9" s="63">
+        <v>3</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+      <c r="I9" s="64">
+        <f t="shared" si="2"/>
+        <v>3.6363636363636598E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="40">
+        <v>4</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="40">
+        <v>12</v>
+      </c>
+      <c r="G10" s="63">
+        <v>3</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I10" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10">
+        <v>401</v>
+      </c>
+      <c r="D15" s="40">
+        <v>4</v>
+      </c>
+      <c r="E15" s="40">
+        <f>C15*D15</f>
+        <v>1604</v>
+      </c>
+      <c r="F15" s="40">
+        <v>1600</v>
+      </c>
+      <c r="G15" s="63">
+        <v>1</v>
+      </c>
+      <c r="H15" s="40">
+        <f>F15*G15</f>
+        <v>1600</v>
+      </c>
+      <c r="I15" s="64">
+        <f>1-E15/H15</f>
+        <v>-2.4999999999999467E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="10">
+        <v>271</v>
+      </c>
+      <c r="D16" s="40">
+        <v>4</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" ref="E16:E22" si="3">C16*D16</f>
+        <v>1084</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1040</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1</v>
+      </c>
+      <c r="H16" s="40">
+        <f t="shared" ref="H16:H22" si="4">F16*G16</f>
+        <v>1040</v>
+      </c>
+      <c r="I16" s="64">
+        <f>1-E16/H16</f>
+        <v>-4.2307692307692379E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10">
+        <v>261</v>
+      </c>
+      <c r="D17" s="40">
+        <v>4</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" si="3"/>
+        <v>1044</v>
+      </c>
+      <c r="F17" s="40">
+        <v>348</v>
+      </c>
+      <c r="G17" s="63">
+        <v>1</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1042</v>
+      </c>
+      <c r="I17" s="64">
+        <f>1-E17/H17</f>
+        <v>-1.9193857965451588E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="10">
+        <v>144</v>
+      </c>
+      <c r="D18" s="40">
+        <v>4</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="F18" s="40">
+        <v>192</v>
+      </c>
+      <c r="G18" s="63">
+        <v>1</v>
+      </c>
+      <c r="H18" s="40">
+        <v>576</v>
+      </c>
+      <c r="I18" s="64">
+        <f>1-E18/H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10">
+        <v>164</v>
+      </c>
+      <c r="D19" s="40">
+        <v>4</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" si="3"/>
+        <v>656</v>
+      </c>
+      <c r="F19" s="40">
+        <v>218</v>
+      </c>
+      <c r="G19" s="63">
+        <v>1</v>
+      </c>
+      <c r="H19" s="40">
+        <v>656</v>
+      </c>
+      <c r="I19" s="64">
+        <f>1-E19/H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="10">
+        <v>20</v>
+      </c>
+      <c r="D20" s="40">
+        <v>4</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F20" s="40">
+        <v>25</v>
+      </c>
+      <c r="G20" s="63">
+        <v>1</v>
+      </c>
+      <c r="H20" s="40">
+        <v>80</v>
+      </c>
+      <c r="I20" s="64">
+        <f>1-E20/H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10">
+        <v>411</v>
+      </c>
+      <c r="D21" s="40">
+        <v>4</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="3"/>
+        <v>1644</v>
+      </c>
+      <c r="F21" s="40">
+        <v>550</v>
+      </c>
+      <c r="G21" s="63">
+        <v>1</v>
+      </c>
+      <c r="H21" s="40">
+        <v>1640</v>
+      </c>
+      <c r="I21" s="64">
+        <f>1-E21/H21</f>
+        <v>-2.4390243902439046E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="10">
+        <v>10</v>
+      </c>
+      <c r="D22" s="40">
+        <v>4</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="40">
+        <v>12</v>
+      </c>
+      <c r="G22" s="63">
+        <v>1</v>
+      </c>
+      <c r="H22" s="40">
+        <v>40</v>
+      </c>
+      <c r="I22" s="64">
+        <f>1-E22/H22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>